--- a/Versi revisi 2024 Perjuangan/penjualan_converted.xlsx
+++ b/Versi revisi 2024 Perjuangan/penjualan_converted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t xml:space="preserve">kesesuaian_titik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sahabat_nfi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firestart</t>
   </si>
   <si>
     <t xml:space="preserve">nama_item</t>
@@ -1177,10 +1189,22 @@
       <c r="AG1" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1.4675810185181</v>
@@ -1192,96 +1216,104 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="U2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="V2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="W2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z2" t="n">
         <v>10.30230848</v>
       </c>
       <c r="AA2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE2" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI2" t="n">
         <v>12500</v>
       </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
+      <c r="AJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="n">
         <v>12500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1.43427083333154</v>
@@ -1293,96 +1325,104 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="U3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="V3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="W3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="X3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Y3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="Z3" t="n">
         <v>12.54022523</v>
       </c>
       <c r="AA3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE3" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI3" t="n">
         <v>12500</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AJ3" t="n">
         <v>4</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AK3" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1.43427083333154</v>
@@ -1394,96 +1434,104 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="U4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="V4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="W4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="Z4" t="n">
         <v>12.54022523</v>
       </c>
       <c r="AA4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE4" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI4" t="n">
         <v>12500</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AJ4" t="n">
         <v>2</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AK4" t="n">
         <v>25000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1.4486689814803</v>
@@ -1495,49 +1543,49 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T5"/>
       <c r="U5"/>
@@ -1549,30 +1597,42 @@
         <v>0</v>
       </c>
       <c r="AA5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AB5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="AC5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI5" t="n">
         <v>12500</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AJ5" t="n">
         <v>4</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AK5" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>1.4486689814803</v>
@@ -1584,49 +1644,49 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T6"/>
       <c r="U6"/>
@@ -1638,30 +1698,42 @@
         <v>0</v>
       </c>
       <c r="AA6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AB6" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="AC6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI6" t="n">
         <v>12500</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AJ6" t="n">
         <v>4</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AK6" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>1.40979166666511</v>
@@ -1673,96 +1745,104 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
         <v>84</v>
       </c>
-      <c r="L7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7" t="s">
-        <v>80</v>
-      </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="U7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="V7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Z7" t="n">
         <v>9.022502721</v>
       </c>
       <c r="AA7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE7" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI7" t="n">
         <v>12500</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AJ7" t="n">
         <v>4</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AK7" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>1.40979166666511</v>
@@ -1774,96 +1854,104 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
         <v>84</v>
       </c>
-      <c r="L8" t="s">
-        <v>85</v>
-      </c>
-      <c r="M8" t="s">
-        <v>86</v>
-      </c>
-      <c r="N8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O8" t="s">
-        <v>80</v>
-      </c>
       <c r="P8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="U8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="V8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="W8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="X8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Z8" t="n">
         <v>9.022502721</v>
       </c>
       <c r="AA8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE8" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI8" t="n">
         <v>12500</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AJ8" t="n">
         <v>4</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AK8" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>1.43791666666584</v>
@@ -1875,96 +1963,104 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="U9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="V9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="W9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="X9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE9" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI9" t="n">
         <v>12500</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AJ9" t="n">
         <v>2</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AK9" t="n">
         <v>25000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>1.43791666666584</v>
@@ -1976,96 +2072,104 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="U10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="V10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="W10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="X10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE10" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI10" t="n">
         <v>12500</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AJ10" t="n">
         <v>2</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AK10" t="n">
         <v>25000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>1.45548611111008</v>
@@ -2077,49 +2181,49 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="S11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T11"/>
       <c r="U11"/>
@@ -2131,30 +2235,38 @@
         <v>0</v>
       </c>
       <c r="AA11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE11" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI11" t="n">
         <v>12500</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AJ11" t="n">
         <v>4</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AK11" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>1.45548611111008</v>
@@ -2166,49 +2278,49 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="S12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T12"/>
       <c r="U12"/>
@@ -2220,30 +2332,38 @@
         <v>0</v>
       </c>
       <c r="AA12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE12" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI12" t="n">
         <v>12500</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AJ12" t="n">
         <v>4</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AK12" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1.4409027777765</v>
@@ -2255,96 +2375,104 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="U13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="V13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="W13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="X13" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Z13" t="n">
         <v>7.622386366</v>
       </c>
       <c r="AA13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE13" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI13" t="n">
         <v>12500</v>
       </c>
-      <c r="AF13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG13" t="n">
+      <c r="AJ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK13" t="n">
         <v>12500</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>1.4409027777765</v>
@@ -2356,96 +2484,104 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T14" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="U14" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="V14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="W14" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="X14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Y14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Z14" t="n">
         <v>7.622386366</v>
       </c>
       <c r="AA14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE14" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI14" t="n">
         <v>12500</v>
       </c>
-      <c r="AF14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG14" t="n">
+      <c r="AJ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK14" t="n">
         <v>12500</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>1.41662037037167</v>
@@ -2457,96 +2593,104 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M15" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="N15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="U15" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="V15" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="W15" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="X15" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Y15" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Z15" t="n">
         <v>29.71718436</v>
       </c>
       <c r="AA15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE15" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI15" t="n">
         <v>12500</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AJ15" t="n">
         <v>2</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AK15" t="n">
         <v>25000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>1.45226851851839</v>
@@ -2558,96 +2702,104 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K16" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M16" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N16" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="O16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R16" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="S16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T16" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="U16" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="V16" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="W16" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="X16" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Y16" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Z16" t="n">
         <v>22.90713085</v>
       </c>
       <c r="AA16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE16" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI16" t="n">
         <v>12500</v>
       </c>
-      <c r="AF16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG16" t="n">
+      <c r="AJ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK16" t="n">
         <v>12500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>1.45226851851839</v>
@@ -2659,96 +2811,104 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J17" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M17" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="O17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R17" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="S17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="U17" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="V17" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="W17" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="X17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Y17" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Z17" t="n">
         <v>22.90713085</v>
       </c>
       <c r="AA17" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE17" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI17" t="n">
         <v>12500</v>
       </c>
-      <c r="AF17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG17" t="n">
+      <c r="AJ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK17" t="n">
         <v>12500</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>1.45226851851839</v>
@@ -2760,96 +2920,104 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I18" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J18" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K18" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L18" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M18" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N18" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="O18" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R18" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T18" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="U18" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="V18" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="W18" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="X18" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Y18" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Z18" t="n">
         <v>22.90713085</v>
       </c>
       <c r="AA18" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE18" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI18" t="n">
         <v>12500</v>
       </c>
-      <c r="AF18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG18" t="n">
+      <c r="AJ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK18" t="n">
         <v>12500</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>1.45226851851839</v>
@@ -2861,96 +3029,104 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I19" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J19" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K19" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L19" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M19" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="O19" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P19" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R19" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="S19" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T19" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="U19" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="V19" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="W19" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="X19" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Y19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Z19" t="n">
         <v>22.90713085</v>
       </c>
       <c r="AA19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE19" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI19" t="n">
         <v>12500</v>
       </c>
-      <c r="AF19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG19" t="n">
+      <c r="AJ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK19" t="n">
         <v>12500</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>1.45226851851839</v>
@@ -2962,96 +3138,104 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I20" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J20" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K20" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L20" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N20" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="O20" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P20" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R20" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="S20" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T20" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="U20" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="V20" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="W20" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="X20" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Y20" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Z20" t="n">
         <v>22.90713085</v>
       </c>
       <c r="AA20" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE20" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI20" t="n">
         <v>12500</v>
       </c>
-      <c r="AF20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG20" t="n">
+      <c r="AJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK20" t="n">
         <v>12500</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>1.42364583333256</v>
@@ -3063,96 +3247,104 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K21" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L21" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M21" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P21" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q21" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="R21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T21" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="U21" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="V21" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="W21" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="X21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Y21" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Z21" t="n">
         <v>2.984055768</v>
       </c>
       <c r="AA21" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE21" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI21" t="n">
         <v>12500</v>
       </c>
-      <c r="AF21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG21" t="n">
+      <c r="AJ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK21" t="n">
         <v>12500</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>1.42364583333256</v>
@@ -3164,96 +3356,104 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K22" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L22" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P22" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q22" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="R22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T22" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="U22" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="V22" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="W22" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="X22" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Y22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Z22" t="n">
         <v>2.984055768</v>
       </c>
       <c r="AA22" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE22" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI22" t="n">
         <v>12500</v>
       </c>
-      <c r="AF22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG22" t="n">
+      <c r="AJ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK22" t="n">
         <v>12500</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>1.40597222222277</v>
@@ -3265,96 +3465,104 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F23" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G23" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H23" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I23" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="J23" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K23" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L23" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M23" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N23" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O23" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P23" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q23" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="R23" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="S23" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T23" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="U23" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="V23" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="W23" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="X23" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Y23" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Z23" t="n">
         <v>26.69638057</v>
       </c>
       <c r="AA23" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE23" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI23" t="n">
         <v>16500</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AJ23" t="n">
         <v>3</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AK23" t="n">
         <v>49500</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>1.39527777777766</v>
@@ -3366,96 +3574,104 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I24" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K24" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L24" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M24" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="N24" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q24" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S24" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T24" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="U24" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="V24" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="W24" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="X24" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Y24" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Z24" t="n">
         <v>0.8843181342</v>
       </c>
       <c r="AA24" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE24" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI24" t="n">
         <v>12500</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AJ24" t="n">
         <v>2</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AK24" t="n">
         <v>25000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>1.47645833333445</v>
@@ -3467,59 +3683,59 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H25" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I25" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J25" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K25" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N25" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="O25" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P25" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q25" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R25" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="S25" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T25" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="U25"/>
       <c r="V25" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="W25" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="X25"/>
       <c r="Y25"/>
@@ -3527,30 +3743,38 @@
         <v>1028260.808</v>
       </c>
       <c r="AA25" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE25" t="n">
+        <v>207</v>
+      </c>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI25" t="n">
         <v>12500</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AJ25" t="n">
         <v>2</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AK25" t="n">
         <v>25000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>1.47645833333445</v>
@@ -3562,59 +3786,59 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G26" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H26" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I26" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J26" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K26" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L26" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M26" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N26" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="O26" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P26" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q26" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R26" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="S26" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T26" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="U26"/>
       <c r="V26" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="W26" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="X26"/>
       <c r="Y26"/>
@@ -3622,30 +3846,38 @@
         <v>1028260.808</v>
       </c>
       <c r="AA26" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE26" t="n">
+        <v>207</v>
+      </c>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI26" t="n">
         <v>12500</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AJ26" t="n">
         <v>2</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AK26" t="n">
         <v>25000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>1.44643518518569</v>
@@ -3657,96 +3889,104 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H27" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M27" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N27" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q27" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R27" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S27" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T27" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="U27" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="V27" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="W27" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="X27" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Y27" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Z27" t="n">
         <v>149.8029696</v>
       </c>
       <c r="AA27" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE27" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI27" t="n">
         <v>12500</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="AJ27" t="n">
         <v>4</v>
       </c>
-      <c r="AG27" t="n">
+      <c r="AK27" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>1.40805555555562</v>
@@ -3758,49 +3998,49 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K28" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O28" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q28" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S28" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T28"/>
       <c r="U28"/>
@@ -3812,30 +4052,42 @@
         <v>0</v>
       </c>
       <c r="AA28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AB28" t="s">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AC28" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI28" t="n">
         <v>12500</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="AJ28" t="n">
         <v>4</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AK28" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>1.40805555555562</v>
@@ -3847,49 +4099,49 @@
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K29" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L29" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M29" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N29" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O29" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S29" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T29"/>
       <c r="U29"/>
@@ -3901,30 +4153,42 @@
         <v>0</v>
       </c>
       <c r="AA29" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AB29" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="AC29" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI29" t="n">
         <v>12500</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AJ29" t="n">
         <v>4</v>
       </c>
-      <c r="AG29" t="n">
+      <c r="AK29" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>1.40805555555562</v>
@@ -3936,49 +4200,49 @@
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I30" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K30" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L30" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M30" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N30" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O30" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q30" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R30" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S30" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T30"/>
       <c r="U30"/>
@@ -3990,30 +4254,42 @@
         <v>0</v>
       </c>
       <c r="AA30" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AB30" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="AC30" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI30" t="n">
         <v>12500</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AJ30" t="n">
         <v>4</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AK30" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>1.49663194444292</v>
@@ -4025,96 +4301,104 @@
         <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G31" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H31" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I31" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J31" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K31" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L31" t="s">
+        <v>229</v>
+      </c>
+      <c r="M31" t="s">
+        <v>230</v>
+      </c>
+      <c r="N31" t="s">
         <v>225</v>
       </c>
-      <c r="M31" t="s">
-        <v>226</v>
-      </c>
-      <c r="N31" t="s">
-        <v>221</v>
-      </c>
       <c r="O31" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P31" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q31" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R31" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S31" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T31" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="U31" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="V31" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="W31" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="X31" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Y31" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Z31" t="n">
         <v>16.29652728</v>
       </c>
       <c r="AA31" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE31" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI31" t="n">
         <v>14000</v>
       </c>
-      <c r="AF31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG31" t="n">
+      <c r="AJ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK31" t="n">
         <v>14000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>1.49663194444292</v>
@@ -4126,96 +4410,104 @@
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F32" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G32" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H32" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I32" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J32" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K32" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L32" t="s">
+        <v>229</v>
+      </c>
+      <c r="M32" t="s">
+        <v>230</v>
+      </c>
+      <c r="N32" t="s">
         <v>225</v>
       </c>
-      <c r="M32" t="s">
-        <v>226</v>
-      </c>
-      <c r="N32" t="s">
-        <v>221</v>
-      </c>
       <c r="O32" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P32" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S32" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T32" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="U32" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="V32" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="W32" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="X32" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Y32" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Z32" t="n">
         <v>16.29652728</v>
       </c>
       <c r="AA32" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>235</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE32" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>239</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI32" t="n">
         <v>14000</v>
       </c>
-      <c r="AF32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG32" t="n">
+      <c r="AJ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK32" t="n">
         <v>14000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>1.49663194444292</v>
@@ -4227,96 +4519,104 @@
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F33" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G33" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H33" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I33" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J33" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K33" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L33" t="s">
+        <v>229</v>
+      </c>
+      <c r="M33" t="s">
+        <v>230</v>
+      </c>
+      <c r="N33" t="s">
         <v>225</v>
       </c>
-      <c r="M33" t="s">
-        <v>226</v>
-      </c>
-      <c r="N33" t="s">
-        <v>221</v>
-      </c>
       <c r="O33" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P33" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q33" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R33" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S33" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T33" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="U33" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="V33" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="W33" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="X33" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Y33" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Z33" t="n">
         <v>16.29652728</v>
       </c>
       <c r="AA33" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE33" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI33" t="n">
         <v>14000</v>
       </c>
-      <c r="AF33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG33" t="n">
+      <c r="AJ33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK33" t="n">
         <v>14000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>1.49663194444292</v>
@@ -4328,96 +4628,104 @@
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F34" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G34" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H34" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I34" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J34" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K34" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L34" t="s">
+        <v>229</v>
+      </c>
+      <c r="M34" t="s">
+        <v>230</v>
+      </c>
+      <c r="N34" t="s">
         <v>225</v>
       </c>
-      <c r="M34" t="s">
-        <v>226</v>
-      </c>
-      <c r="N34" t="s">
-        <v>221</v>
-      </c>
       <c r="O34" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P34" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q34" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R34" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S34" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T34" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="U34" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="V34" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="W34" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="X34" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Y34" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Z34" t="n">
         <v>16.29652728</v>
       </c>
       <c r="AA34" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE34" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI34" t="n">
         <v>14000</v>
       </c>
-      <c r="AF34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG34" t="n">
+      <c r="AJ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK34" t="n">
         <v>14000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>1.49663194444292</v>
@@ -4429,96 +4737,104 @@
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F35" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G35" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H35" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I35" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J35" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K35" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L35" t="s">
+        <v>229</v>
+      </c>
+      <c r="M35" t="s">
+        <v>230</v>
+      </c>
+      <c r="N35" t="s">
         <v>225</v>
       </c>
-      <c r="M35" t="s">
-        <v>226</v>
-      </c>
-      <c r="N35" t="s">
-        <v>221</v>
-      </c>
       <c r="O35" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q35" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R35" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S35" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T35" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="U35" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="V35" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="W35" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="X35" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Y35" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Z35" t="n">
         <v>16.29652728</v>
       </c>
       <c r="AA35" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE35" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI35" t="n">
         <v>14000</v>
       </c>
-      <c r="AF35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG35" t="n">
+      <c r="AJ35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK35" t="n">
         <v>14000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>1.49663194444292</v>
@@ -4530,96 +4846,104 @@
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F36" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G36" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H36" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I36" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J36" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K36" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L36" t="s">
+        <v>229</v>
+      </c>
+      <c r="M36" t="s">
+        <v>230</v>
+      </c>
+      <c r="N36" t="s">
         <v>225</v>
       </c>
-      <c r="M36" t="s">
-        <v>226</v>
-      </c>
-      <c r="N36" t="s">
-        <v>221</v>
-      </c>
       <c r="O36" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P36" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q36" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R36" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S36" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T36" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="U36" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="V36" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="W36" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="X36" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Y36" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Z36" t="n">
         <v>16.29652728</v>
       </c>
       <c r="AA36" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE36" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI36" t="n">
         <v>16500</v>
       </c>
-      <c r="AF36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG36" t="n">
+      <c r="AJ36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK36" t="n">
         <v>16500</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>1.49663194444292</v>
@@ -4631,96 +4955,104 @@
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F37" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G37" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H37" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I37" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J37" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K37" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L37" t="s">
+        <v>229</v>
+      </c>
+      <c r="M37" t="s">
+        <v>230</v>
+      </c>
+      <c r="N37" t="s">
         <v>225</v>
       </c>
-      <c r="M37" t="s">
-        <v>226</v>
-      </c>
-      <c r="N37" t="s">
-        <v>221</v>
-      </c>
       <c r="O37" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P37" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q37" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R37" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S37" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T37" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="U37" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="V37" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="W37" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="X37" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Y37" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Z37" t="n">
         <v>16.29652728</v>
       </c>
       <c r="AA37" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>239</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE37" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI37" t="n">
         <v>18000</v>
       </c>
-      <c r="AF37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG37" t="n">
+      <c r="AJ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="n">
         <v>18000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>1.49663194444292</v>
@@ -4732,90 +5064,98 @@
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F38" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G38" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H38" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I38" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J38" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K38" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L38" t="s">
+        <v>229</v>
+      </c>
+      <c r="M38" t="s">
+        <v>230</v>
+      </c>
+      <c r="N38" t="s">
         <v>225</v>
       </c>
-      <c r="M38" t="s">
-        <v>226</v>
-      </c>
-      <c r="N38" t="s">
-        <v>221</v>
-      </c>
       <c r="O38" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P38" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q38" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R38" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S38" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T38" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="U38" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="V38" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="W38" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="X38" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Y38" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Z38" t="n">
         <v>16.29652728</v>
       </c>
       <c r="AA38" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>241</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE38" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI38" t="n">
         <v>14000</v>
       </c>
-      <c r="AF38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG38" t="n">
+      <c r="AJ38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK38" t="n">
         <v>14000</v>
       </c>
     </row>

--- a/Versi revisi 2024 Perjuangan/penjualan_converted.xlsx
+++ b/Versi revisi 2024 Perjuangan/penjualan_converted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">firestart</t>
   </si>
   <si>
-    <t xml:space="preserve">nama_item</t>
+    <t xml:space="preserve">item_penjualan</t>
   </si>
   <si>
     <t xml:space="preserve">brand</t>
@@ -125,6 +125,9 @@
     <t xml:space="preserve">omset</t>
   </si>
   <si>
+    <t xml:space="preserve">tipe_transaksi</t>
+  </si>
+  <si>
     <t xml:space="preserve">130cac82</t>
   </si>
   <si>
@@ -198,6 +201,9 @@
   </si>
   <si>
     <t xml:space="preserve">REGULER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call</t>
   </si>
   <si>
     <t xml:space="preserve">1f5790b9</t>
@@ -1201,10 +1207,13 @@
       <c r="AK1" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1.4675810185181</v>
@@ -1216,73 +1225,73 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z2" t="n">
         <v>10.30230848</v>
       </c>
       <c r="AA2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB2"/>
       <c r="AC2"/>
@@ -1293,13 +1302,13 @@
         <v>1</v>
       </c>
       <c r="AF2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI2" t="n">
         <v>12500</v>
@@ -1309,11 +1318,14 @@
       </c>
       <c r="AK2" t="n">
         <v>12500</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1.43427083333154</v>
@@ -1325,73 +1337,73 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="U3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="V3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z3" t="n">
         <v>12.54022523</v>
       </c>
       <c r="AA3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB3"/>
       <c r="AC3"/>
@@ -1402,13 +1414,13 @@
         <v>1</v>
       </c>
       <c r="AF3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI3" t="n">
         <v>12500</v>
@@ -1418,11 +1430,14 @@
       </c>
       <c r="AK3" t="n">
         <v>50000</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1.43427083333154</v>
@@ -1434,73 +1449,73 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="U4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="V4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="n">
         <v>12.54022523</v>
       </c>
       <c r="AA4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB4"/>
       <c r="AC4"/>
@@ -1511,13 +1526,13 @@
         <v>1</v>
       </c>
       <c r="AF4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI4" t="n">
         <v>12500</v>
@@ -1527,11 +1542,14 @@
       </c>
       <c r="AK4" t="n">
         <v>25000</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1.4486689814803</v>
@@ -1543,49 +1561,49 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T5"/>
       <c r="U5"/>
@@ -1597,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="AA5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AC5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AD5" t="b">
         <v>1</v>
@@ -1612,13 +1630,13 @@
         <v>1</v>
       </c>
       <c r="AF5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI5" t="n">
         <v>12500</v>
@@ -1628,11 +1646,14 @@
       </c>
       <c r="AK5" t="n">
         <v>50000</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>1.4486689814803</v>
@@ -1644,49 +1665,49 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T6"/>
       <c r="U6"/>
@@ -1698,13 +1719,13 @@
         <v>0</v>
       </c>
       <c r="AA6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AC6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AD6" t="b">
         <v>1</v>
@@ -1713,13 +1734,13 @@
         <v>1</v>
       </c>
       <c r="AF6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI6" t="n">
         <v>12500</v>
@@ -1729,11 +1750,14 @@
       </c>
       <c r="AK6" t="n">
         <v>50000</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>1.40979166666511</v>
@@ -1745,73 +1769,73 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Z7" t="n">
         <v>9.022502721</v>
       </c>
       <c r="AA7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB7"/>
       <c r="AC7"/>
@@ -1822,13 +1846,13 @@
         <v>1</v>
       </c>
       <c r="AF7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AG7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI7" t="n">
         <v>12500</v>
@@ -1838,11 +1862,14 @@
       </c>
       <c r="AK7" t="n">
         <v>50000</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>1.40979166666511</v>
@@ -1854,73 +1881,73 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="W8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="X8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Z8" t="n">
         <v>9.022502721</v>
       </c>
       <c r="AA8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB8"/>
       <c r="AC8"/>
@@ -1931,13 +1958,13 @@
         <v>1</v>
       </c>
       <c r="AF8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI8" t="n">
         <v>12500</v>
@@ -1947,11 +1974,14 @@
       </c>
       <c r="AK8" t="n">
         <v>50000</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>1.43791666666584</v>
@@ -1963,73 +1993,73 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="U9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="V9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB9"/>
       <c r="AC9"/>
@@ -2040,13 +2070,13 @@
         <v>1</v>
       </c>
       <c r="AF9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AG9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI9" t="n">
         <v>12500</v>
@@ -2056,11 +2086,14 @@
       </c>
       <c r="AK9" t="n">
         <v>25000</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>1.43791666666584</v>
@@ -2072,73 +2105,73 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="U10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="V10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB10"/>
       <c r="AC10"/>
@@ -2149,13 +2182,13 @@
         <v>1</v>
       </c>
       <c r="AF10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI10" t="n">
         <v>12500</v>
@@ -2165,11 +2198,14 @@
       </c>
       <c r="AK10" t="n">
         <v>25000</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>1.45548611111008</v>
@@ -2181,49 +2217,49 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="S11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T11"/>
       <c r="U11"/>
@@ -2235,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="AA11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB11"/>
       <c r="AC11"/>
@@ -2246,13 +2282,13 @@
         <v>1</v>
       </c>
       <c r="AF11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AG11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI11" t="n">
         <v>12500</v>
@@ -2262,11 +2298,14 @@
       </c>
       <c r="AK11" t="n">
         <v>50000</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>1.45548611111008</v>
@@ -2278,49 +2317,49 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="S12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T12"/>
       <c r="U12"/>
@@ -2332,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="AA12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB12"/>
       <c r="AC12"/>
@@ -2343,13 +2382,13 @@
         <v>1</v>
       </c>
       <c r="AF12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI12" t="n">
         <v>12500</v>
@@ -2359,11 +2398,14 @@
       </c>
       <c r="AK12" t="n">
         <v>50000</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1.4409027777765</v>
@@ -2375,73 +2417,73 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="U13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="V13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="W13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="X13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Y13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Z13" t="n">
         <v>7.622386366</v>
       </c>
       <c r="AA13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB13"/>
       <c r="AC13"/>
@@ -2452,13 +2494,13 @@
         <v>1</v>
       </c>
       <c r="AF13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI13" t="n">
         <v>12500</v>
@@ -2468,11 +2510,14 @@
       </c>
       <c r="AK13" t="n">
         <v>12500</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>1.4409027777765</v>
@@ -2484,73 +2529,73 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="U14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="V14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="W14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="X14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Y14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Z14" t="n">
         <v>7.622386366</v>
       </c>
       <c r="AA14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB14"/>
       <c r="AC14"/>
@@ -2561,13 +2606,13 @@
         <v>1</v>
       </c>
       <c r="AF14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI14" t="n">
         <v>12500</v>
@@ -2577,11 +2622,14 @@
       </c>
       <c r="AK14" t="n">
         <v>12500</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>1.41662037037167</v>
@@ -2593,73 +2641,73 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="U15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="W15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Z15" t="n">
         <v>29.71718436</v>
       </c>
       <c r="AA15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB15"/>
       <c r="AC15"/>
@@ -2670,13 +2718,13 @@
         <v>1</v>
       </c>
       <c r="AF15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI15" t="n">
         <v>12500</v>
@@ -2686,11 +2734,14 @@
       </c>
       <c r="AK15" t="n">
         <v>25000</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>1.45226851851839</v>
@@ -2702,73 +2753,73 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="U16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="V16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="W16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="X16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Y16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z16" t="n">
         <v>22.90713085</v>
       </c>
       <c r="AA16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB16"/>
       <c r="AC16"/>
@@ -2779,13 +2830,13 @@
         <v>1</v>
       </c>
       <c r="AF16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AG16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI16" t="n">
         <v>12500</v>
@@ -2795,11 +2846,14 @@
       </c>
       <c r="AK16" t="n">
         <v>12500</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>1.45226851851839</v>
@@ -2811,73 +2865,73 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M17" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="U17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="V17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="W17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="X17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Y17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z17" t="n">
         <v>22.90713085</v>
       </c>
       <c r="AA17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB17"/>
       <c r="AC17"/>
@@ -2888,13 +2942,13 @@
         <v>1</v>
       </c>
       <c r="AF17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AG17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI17" t="n">
         <v>12500</v>
@@ -2904,11 +2958,14 @@
       </c>
       <c r="AK17" t="n">
         <v>12500</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>1.45226851851839</v>
@@ -2920,73 +2977,73 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="U18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="V18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="W18" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="X18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Y18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z18" t="n">
         <v>22.90713085</v>
       </c>
       <c r="AA18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB18"/>
       <c r="AC18"/>
@@ -2997,13 +3054,13 @@
         <v>1</v>
       </c>
       <c r="AF18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AG18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI18" t="n">
         <v>12500</v>
@@ -3013,11 +3070,14 @@
       </c>
       <c r="AK18" t="n">
         <v>12500</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>1.45226851851839</v>
@@ -3029,73 +3089,73 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J19" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K19" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="U19" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="V19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="W19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="X19" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Y19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z19" t="n">
         <v>22.90713085</v>
       </c>
       <c r="AA19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB19"/>
       <c r="AC19"/>
@@ -3106,13 +3166,13 @@
         <v>1</v>
       </c>
       <c r="AF19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI19" t="n">
         <v>12500</v>
@@ -3122,11 +3182,14 @@
       </c>
       <c r="AK19" t="n">
         <v>12500</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>1.45226851851839</v>
@@ -3138,73 +3201,73 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R20" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="U20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="V20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="W20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="X20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Y20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z20" t="n">
         <v>22.90713085</v>
       </c>
       <c r="AA20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB20"/>
       <c r="AC20"/>
@@ -3215,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="AF20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI20" t="n">
         <v>12500</v>
@@ -3231,11 +3294,14 @@
       </c>
       <c r="AK20" t="n">
         <v>12500</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>1.42364583333256</v>
@@ -3247,73 +3313,73 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="R21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="U21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="W21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="X21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z21" t="n">
         <v>2.984055768</v>
       </c>
       <c r="AA21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB21"/>
       <c r="AC21"/>
@@ -3324,13 +3390,13 @@
         <v>1</v>
       </c>
       <c r="AF21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AG21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI21" t="n">
         <v>12500</v>
@@ -3340,11 +3406,14 @@
       </c>
       <c r="AK21" t="n">
         <v>12500</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>1.42364583333256</v>
@@ -3356,73 +3425,73 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="R22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="U22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V22" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="W22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="X22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z22" t="n">
         <v>2.984055768</v>
       </c>
       <c r="AA22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB22"/>
       <c r="AC22"/>
@@ -3433,13 +3502,13 @@
         <v>1</v>
       </c>
       <c r="AF22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AG22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI22" t="n">
         <v>12500</v>
@@ -3449,11 +3518,14 @@
       </c>
       <c r="AK22" t="n">
         <v>12500</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>1.40597222222277</v>
@@ -3465,73 +3537,73 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G23" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I23" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M23" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N23" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="R23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="S23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="U23" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="V23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="W23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="X23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Y23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Z23" t="n">
         <v>26.69638057</v>
       </c>
       <c r="AA23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB23"/>
       <c r="AC23"/>
@@ -3542,13 +3614,13 @@
         <v>1</v>
       </c>
       <c r="AF23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AH23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI23" t="n">
         <v>16500</v>
@@ -3558,11 +3630,14 @@
       </c>
       <c r="AK23" t="n">
         <v>49500</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>1.39527777777766</v>
@@ -3574,73 +3649,73 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J24" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T24" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="U24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="V24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="W24" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="X24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Y24" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Z24" t="n">
         <v>0.8843181342</v>
       </c>
       <c r="AA24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB24"/>
       <c r="AC24"/>
@@ -3651,13 +3726,13 @@
         <v>1</v>
       </c>
       <c r="AF24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI24" t="n">
         <v>12500</v>
@@ -3667,11 +3742,14 @@
       </c>
       <c r="AK24" t="n">
         <v>25000</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>1.47645833333445</v>
@@ -3683,59 +3761,59 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J25" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K25" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L25" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R25" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="S25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T25" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="U25"/>
       <c r="V25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="W25" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X25"/>
       <c r="Y25"/>
@@ -3743,7 +3821,7 @@
         <v>1028260.808</v>
       </c>
       <c r="AA25" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AB25"/>
       <c r="AC25"/>
@@ -3754,13 +3832,13 @@
         <v>1</v>
       </c>
       <c r="AF25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI25" t="n">
         <v>12500</v>
@@ -3770,11 +3848,14 @@
       </c>
       <c r="AK25" t="n">
         <v>25000</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>1.47645833333445</v>
@@ -3786,59 +3867,59 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J26" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K26" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L26" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R26" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="S26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T26" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="U26"/>
       <c r="V26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="W26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X26"/>
       <c r="Y26"/>
@@ -3846,7 +3927,7 @@
         <v>1028260.808</v>
       </c>
       <c r="AA26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AB26"/>
       <c r="AC26"/>
@@ -3857,13 +3938,13 @@
         <v>1</v>
       </c>
       <c r="AF26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI26" t="n">
         <v>12500</v>
@@ -3873,11 +3954,14 @@
       </c>
       <c r="AK26" t="n">
         <v>25000</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>1.44643518518569</v>
@@ -3889,73 +3973,73 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K27" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L27" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T27" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="U27" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="V27" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="W27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="X27" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Y27" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Z27" t="n">
         <v>149.8029696</v>
       </c>
       <c r="AA27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB27"/>
       <c r="AC27"/>
@@ -3966,13 +4050,13 @@
         <v>1</v>
       </c>
       <c r="AF27" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AG27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI27" t="n">
         <v>12500</v>
@@ -3982,11 +4066,14 @@
       </c>
       <c r="AK27" t="n">
         <v>50000</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>1.40805555555562</v>
@@ -3998,49 +4085,49 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K28" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T28"/>
       <c r="U28"/>
@@ -4052,13 +4139,13 @@
         <v>0</v>
       </c>
       <c r="AA28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AC28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AD28" t="b">
         <v>1</v>
@@ -4067,13 +4154,13 @@
         <v>1</v>
       </c>
       <c r="AF28" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AG28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI28" t="n">
         <v>12500</v>
@@ -4083,11 +4170,14 @@
       </c>
       <c r="AK28" t="n">
         <v>50000</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>1.40805555555562</v>
@@ -4099,49 +4189,49 @@
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T29"/>
       <c r="U29"/>
@@ -4153,13 +4243,13 @@
         <v>0</v>
       </c>
       <c r="AA29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AC29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AD29" t="b">
         <v>1</v>
@@ -4168,13 +4258,13 @@
         <v>1</v>
       </c>
       <c r="AF29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI29" t="n">
         <v>12500</v>
@@ -4184,11 +4274,14 @@
       </c>
       <c r="AK29" t="n">
         <v>50000</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>1.40805555555562</v>
@@ -4200,49 +4293,49 @@
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N30" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T30"/>
       <c r="U30"/>
@@ -4254,13 +4347,13 @@
         <v>0</v>
       </c>
       <c r="AA30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AC30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AD30" t="b">
         <v>1</v>
@@ -4269,13 +4362,13 @@
         <v>1</v>
       </c>
       <c r="AF30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI30" t="n">
         <v>12500</v>
@@ -4285,11 +4378,14 @@
       </c>
       <c r="AK30" t="n">
         <v>50000</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>1.49663194444292</v>
@@ -4301,73 +4397,73 @@
         <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F31" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G31" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I31" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J31" t="s">
+        <v>229</v>
+      </c>
+      <c r="K31" t="s">
+        <v>230</v>
+      </c>
+      <c r="L31" t="s">
+        <v>231</v>
+      </c>
+      <c r="M31" t="s">
+        <v>232</v>
+      </c>
+      <c r="N31" t="s">
         <v>227</v>
       </c>
-      <c r="K31" t="s">
-        <v>228</v>
-      </c>
-      <c r="L31" t="s">
-        <v>229</v>
-      </c>
-      <c r="M31" t="s">
-        <v>230</v>
-      </c>
-      <c r="N31" t="s">
-        <v>225</v>
-      </c>
       <c r="O31" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T31" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="U31" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="V31" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="W31" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="X31" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Y31" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Z31" t="n">
         <v>16.29652728</v>
       </c>
       <c r="AA31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB31"/>
       <c r="AC31"/>
@@ -4378,13 +4474,13 @@
         <v>1</v>
       </c>
       <c r="AF31" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AG31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AH31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI31" t="n">
         <v>14000</v>
@@ -4394,11 +4490,14 @@
       </c>
       <c r="AK31" t="n">
         <v>14000</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>1.49663194444292</v>
@@ -4410,73 +4509,73 @@
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F32" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G32" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H32" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I32" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J32" t="s">
+        <v>229</v>
+      </c>
+      <c r="K32" t="s">
+        <v>230</v>
+      </c>
+      <c r="L32" t="s">
+        <v>231</v>
+      </c>
+      <c r="M32" t="s">
+        <v>232</v>
+      </c>
+      <c r="N32" t="s">
         <v>227</v>
       </c>
-      <c r="K32" t="s">
-        <v>228</v>
-      </c>
-      <c r="L32" t="s">
-        <v>229</v>
-      </c>
-      <c r="M32" t="s">
-        <v>230</v>
-      </c>
-      <c r="N32" t="s">
-        <v>225</v>
-      </c>
       <c r="O32" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T32" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="U32" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="V32" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="W32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="X32" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Y32" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Z32" t="n">
         <v>16.29652728</v>
       </c>
       <c r="AA32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB32"/>
       <c r="AC32"/>
@@ -4487,13 +4586,13 @@
         <v>1</v>
       </c>
       <c r="AF32" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AG32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AH32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI32" t="n">
         <v>14000</v>
@@ -4503,11 +4602,14 @@
       </c>
       <c r="AK32" t="n">
         <v>14000</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>1.49663194444292</v>
@@ -4519,73 +4621,73 @@
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F33" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G33" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I33" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J33" t="s">
+        <v>229</v>
+      </c>
+      <c r="K33" t="s">
+        <v>230</v>
+      </c>
+      <c r="L33" t="s">
+        <v>231</v>
+      </c>
+      <c r="M33" t="s">
+        <v>232</v>
+      </c>
+      <c r="N33" t="s">
         <v>227</v>
       </c>
-      <c r="K33" t="s">
-        <v>228</v>
-      </c>
-      <c r="L33" t="s">
-        <v>229</v>
-      </c>
-      <c r="M33" t="s">
-        <v>230</v>
-      </c>
-      <c r="N33" t="s">
-        <v>225</v>
-      </c>
       <c r="O33" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T33" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="U33" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="V33" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="W33" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="X33" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Y33" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Z33" t="n">
         <v>16.29652728</v>
       </c>
       <c r="AA33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB33"/>
       <c r="AC33"/>
@@ -4596,13 +4698,13 @@
         <v>1</v>
       </c>
       <c r="AF33" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG33" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AH33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI33" t="n">
         <v>14000</v>
@@ -4612,11 +4714,14 @@
       </c>
       <c r="AK33" t="n">
         <v>14000</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>1.49663194444292</v>
@@ -4628,73 +4733,73 @@
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F34" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G34" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H34" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I34" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J34" t="s">
+        <v>229</v>
+      </c>
+      <c r="K34" t="s">
+        <v>230</v>
+      </c>
+      <c r="L34" t="s">
+        <v>231</v>
+      </c>
+      <c r="M34" t="s">
+        <v>232</v>
+      </c>
+      <c r="N34" t="s">
         <v>227</v>
       </c>
-      <c r="K34" t="s">
-        <v>228</v>
-      </c>
-      <c r="L34" t="s">
-        <v>229</v>
-      </c>
-      <c r="M34" t="s">
-        <v>230</v>
-      </c>
-      <c r="N34" t="s">
-        <v>225</v>
-      </c>
       <c r="O34" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T34" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="U34" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="V34" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="W34" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="X34" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Y34" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Z34" t="n">
         <v>16.29652728</v>
       </c>
       <c r="AA34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB34"/>
       <c r="AC34"/>
@@ -4705,13 +4810,13 @@
         <v>1</v>
       </c>
       <c r="AF34" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AG34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AH34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI34" t="n">
         <v>14000</v>
@@ -4721,11 +4826,14 @@
       </c>
       <c r="AK34" t="n">
         <v>14000</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>1.49663194444292</v>
@@ -4737,73 +4845,73 @@
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F35" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G35" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H35" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I35" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J35" t="s">
+        <v>229</v>
+      </c>
+      <c r="K35" t="s">
+        <v>230</v>
+      </c>
+      <c r="L35" t="s">
+        <v>231</v>
+      </c>
+      <c r="M35" t="s">
+        <v>232</v>
+      </c>
+      <c r="N35" t="s">
         <v>227</v>
       </c>
-      <c r="K35" t="s">
-        <v>228</v>
-      </c>
-      <c r="L35" t="s">
-        <v>229</v>
-      </c>
-      <c r="M35" t="s">
-        <v>230</v>
-      </c>
-      <c r="N35" t="s">
-        <v>225</v>
-      </c>
       <c r="O35" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T35" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="U35" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="V35" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="W35" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="X35" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Y35" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Z35" t="n">
         <v>16.29652728</v>
       </c>
       <c r="AA35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB35"/>
       <c r="AC35"/>
@@ -4814,13 +4922,13 @@
         <v>1</v>
       </c>
       <c r="AF35" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG35" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AH35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI35" t="n">
         <v>14000</v>
@@ -4830,11 +4938,14 @@
       </c>
       <c r="AK35" t="n">
         <v>14000</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>1.49663194444292</v>
@@ -4846,73 +4957,73 @@
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F36" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G36" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H36" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I36" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J36" t="s">
+        <v>229</v>
+      </c>
+      <c r="K36" t="s">
+        <v>230</v>
+      </c>
+      <c r="L36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M36" t="s">
+        <v>232</v>
+      </c>
+      <c r="N36" t="s">
         <v>227</v>
       </c>
-      <c r="K36" t="s">
-        <v>228</v>
-      </c>
-      <c r="L36" t="s">
-        <v>229</v>
-      </c>
-      <c r="M36" t="s">
-        <v>230</v>
-      </c>
-      <c r="N36" t="s">
-        <v>225</v>
-      </c>
       <c r="O36" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P36" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T36" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="U36" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="V36" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="W36" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="X36" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Y36" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Z36" t="n">
         <v>16.29652728</v>
       </c>
       <c r="AA36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB36"/>
       <c r="AC36"/>
@@ -4923,13 +5034,13 @@
         <v>1</v>
       </c>
       <c r="AF36" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG36" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AH36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI36" t="n">
         <v>16500</v>
@@ -4939,11 +5050,14 @@
       </c>
       <c r="AK36" t="n">
         <v>16500</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>1.49663194444292</v>
@@ -4955,73 +5069,73 @@
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F37" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G37" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H37" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I37" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J37" t="s">
+        <v>229</v>
+      </c>
+      <c r="K37" t="s">
+        <v>230</v>
+      </c>
+      <c r="L37" t="s">
+        <v>231</v>
+      </c>
+      <c r="M37" t="s">
+        <v>232</v>
+      </c>
+      <c r="N37" t="s">
         <v>227</v>
       </c>
-      <c r="K37" t="s">
-        <v>228</v>
-      </c>
-      <c r="L37" t="s">
-        <v>229</v>
-      </c>
-      <c r="M37" t="s">
-        <v>230</v>
-      </c>
-      <c r="N37" t="s">
-        <v>225</v>
-      </c>
       <c r="O37" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T37" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="U37" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="V37" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="W37" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="X37" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Y37" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Z37" t="n">
         <v>16.29652728</v>
       </c>
       <c r="AA37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB37"/>
       <c r="AC37"/>
@@ -5032,13 +5146,13 @@
         <v>1</v>
       </c>
       <c r="AF37" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AG37" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AH37" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AI37" t="n">
         <v>18000</v>
@@ -5048,11 +5162,14 @@
       </c>
       <c r="AK37" t="n">
         <v>18000</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>1.49663194444292</v>
@@ -5064,73 +5181,73 @@
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F38" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G38" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H38" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I38" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J38" t="s">
+        <v>229</v>
+      </c>
+      <c r="K38" t="s">
+        <v>230</v>
+      </c>
+      <c r="L38" t="s">
+        <v>231</v>
+      </c>
+      <c r="M38" t="s">
+        <v>232</v>
+      </c>
+      <c r="N38" t="s">
         <v>227</v>
       </c>
-      <c r="K38" t="s">
-        <v>228</v>
-      </c>
-      <c r="L38" t="s">
-        <v>229</v>
-      </c>
-      <c r="M38" t="s">
-        <v>230</v>
-      </c>
-      <c r="N38" t="s">
-        <v>225</v>
-      </c>
       <c r="O38" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P38" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T38" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="U38" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="V38" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="W38" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="X38" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Y38" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Z38" t="n">
         <v>16.29652728</v>
       </c>
       <c r="AA38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB38"/>
       <c r="AC38"/>
@@ -5141,13 +5258,13 @@
         <v>1</v>
       </c>
       <c r="AF38" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG38" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AH38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI38" t="n">
         <v>14000</v>
@@ -5157,6 +5274,9 @@
       </c>
       <c r="AK38" t="n">
         <v>14000</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Versi revisi 2024 Perjuangan/penjualan_converted.xlsx
+++ b/Versi revisi 2024 Perjuangan/penjualan_converted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t xml:space="preserve">kesesuaian_titik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peserta_display_wow_operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peserta_loyalty_sachet</t>
   </si>
   <si>
     <t xml:space="preserve">project_1</t>
@@ -1210,10 +1216,16 @@
       <c r="AL1" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1.4675810185181</v>
@@ -1225,107 +1237,113 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z2" t="n">
         <v>10.30230848</v>
       </c>
       <c r="AA2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG2" t="s">
         <v>61</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="b">
+        <v>1</v>
       </c>
       <c r="AH2" t="s">
         <v>62</v>
       </c>
-      <c r="AI2" t="n">
-        <v>12500</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
+      <c r="AI2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>64</v>
       </c>
       <c r="AK2" t="n">
         <v>12500</v>
       </c>
-      <c r="AL2" t="s">
-        <v>63</v>
+      <c r="AL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>12500</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1.43427083333154</v>
@@ -1337,107 +1355,113 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="n">
         <v>12.54022523</v>
       </c>
       <c r="AA3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB3"/>
-      <c r="AC3"/>
-      <c r="AD3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG3" t="s">
         <v>61</v>
       </c>
+      <c r="AB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>1</v>
+      </c>
       <c r="AH3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI3" t="n">
+        <v>77</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK3" t="n">
         <v>12500</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AL3" t="n">
         <v>4</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AM3" t="n">
         <v>50000</v>
       </c>
-      <c r="AL3" t="s">
-        <v>63</v>
+      <c r="AN3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1.43427083333154</v>
@@ -1449,107 +1473,113 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="n">
         <v>12.54022523</v>
       </c>
       <c r="AA4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG4" t="s">
         <v>61</v>
       </c>
+      <c r="AB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>1</v>
+      </c>
       <c r="AH4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI4" t="n">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK4" t="n">
         <v>12500</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AL4" t="n">
         <v>2</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AM4" t="n">
         <v>25000</v>
       </c>
-      <c r="AL4" t="s">
-        <v>63</v>
+      <c r="AN4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1.4486689814803</v>
@@ -1561,49 +1591,49 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T5"/>
       <c r="U5"/>
@@ -1615,45 +1645,51 @@
         <v>0</v>
       </c>
       <c r="AA5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG5" t="s">
         <v>61</v>
       </c>
+      <c r="AB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>1</v>
+      </c>
       <c r="AH5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI5" t="n">
+        <v>78</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK5" t="n">
         <v>12500</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AL5" t="n">
         <v>4</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AM5" t="n">
         <v>50000</v>
       </c>
-      <c r="AL5" t="s">
-        <v>63</v>
+      <c r="AN5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>1.4486689814803</v>
@@ -1665,49 +1701,49 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T6"/>
       <c r="U6"/>
@@ -1719,45 +1755,51 @@
         <v>0</v>
       </c>
       <c r="AA6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG6" t="s">
         <v>61</v>
       </c>
+      <c r="AB6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>1</v>
+      </c>
       <c r="AH6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI6" t="n">
+        <v>77</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK6" t="n">
         <v>12500</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AL6" t="n">
         <v>4</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AM6" t="n">
         <v>50000</v>
       </c>
-      <c r="AL6" t="s">
-        <v>63</v>
+      <c r="AN6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>1.40979166666511</v>
@@ -1769,107 +1811,113 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="U7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="V7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Z7" t="n">
         <v>9.022502721</v>
       </c>
       <c r="AA7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG7" t="s">
         <v>61</v>
       </c>
+      <c r="AB7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>1</v>
+      </c>
       <c r="AH7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI7" t="n">
+        <v>102</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK7" t="n">
         <v>12500</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AL7" t="n">
         <v>4</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AM7" t="n">
         <v>50000</v>
       </c>
-      <c r="AL7" t="s">
-        <v>63</v>
+      <c r="AN7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>1.40979166666511</v>
@@ -1881,107 +1929,113 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="U8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="V8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="W8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="X8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Z8" t="n">
         <v>9.022502721</v>
       </c>
       <c r="AA8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG8" t="s">
         <v>61</v>
       </c>
+      <c r="AB8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>1</v>
+      </c>
       <c r="AH8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI8" t="n">
+        <v>78</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK8" t="n">
         <v>12500</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AL8" t="n">
         <v>4</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AM8" t="n">
         <v>50000</v>
       </c>
-      <c r="AL8" t="s">
-        <v>63</v>
+      <c r="AN8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>1.43791666666584</v>
@@ -1993,107 +2047,113 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG9" t="s">
         <v>61</v>
       </c>
+      <c r="AB9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>1</v>
+      </c>
       <c r="AH9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI9" t="n">
+        <v>115</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK9" t="n">
         <v>12500</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AL9" t="n">
         <v>2</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AM9" t="n">
         <v>25000</v>
       </c>
-      <c r="AL9" t="s">
-        <v>63</v>
+      <c r="AN9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>1.43791666666584</v>
@@ -2105,107 +2165,113 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="X10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG10" t="s">
         <v>61</v>
       </c>
+      <c r="AB10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>1</v>
+      </c>
       <c r="AH10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI10" t="n">
+        <v>78</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK10" t="n">
         <v>12500</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AL10" t="n">
         <v>2</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AM10" t="n">
         <v>25000</v>
       </c>
-      <c r="AL10" t="s">
-        <v>63</v>
+      <c r="AN10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>1.45548611111008</v>
@@ -2217,49 +2283,49 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T11"/>
       <c r="U11"/>
@@ -2271,41 +2337,47 @@
         <v>0</v>
       </c>
       <c r="AA11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB11"/>
-      <c r="AC11"/>
-      <c r="AD11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG11" t="s">
         <v>61</v>
       </c>
+      <c r="AB11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>1</v>
+      </c>
       <c r="AH11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI11" t="n">
+        <v>123</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK11" t="n">
         <v>12500</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AL11" t="n">
         <v>4</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AM11" t="n">
         <v>50000</v>
       </c>
-      <c r="AL11" t="s">
-        <v>63</v>
+      <c r="AN11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>1.45548611111008</v>
@@ -2317,49 +2389,49 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T12"/>
       <c r="U12"/>
@@ -2371,41 +2443,47 @@
         <v>0</v>
       </c>
       <c r="AA12" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG12" t="s">
         <v>61</v>
       </c>
+      <c r="AB12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>1</v>
+      </c>
       <c r="AH12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI12" t="n">
+        <v>78</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK12" t="n">
         <v>12500</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AL12" t="n">
         <v>4</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AM12" t="n">
         <v>50000</v>
       </c>
-      <c r="AL12" t="s">
-        <v>63</v>
+      <c r="AN12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1.4409027777765</v>
@@ -2417,107 +2495,113 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="U13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="V13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="W13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="X13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Z13" t="n">
         <v>7.622386366</v>
       </c>
       <c r="AA13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB13"/>
-      <c r="AC13"/>
-      <c r="AD13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG13" t="s">
         <v>61</v>
+      </c>
+      <c r="AB13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>1</v>
       </c>
       <c r="AH13" t="s">
         <v>62</v>
       </c>
-      <c r="AI13" t="n">
-        <v>12500</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1</v>
+      <c r="AI13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>64</v>
       </c>
       <c r="AK13" t="n">
         <v>12500</v>
       </c>
-      <c r="AL13" t="s">
-        <v>63</v>
+      <c r="AL13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>12500</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>1.4409027777765</v>
@@ -2529,107 +2613,113 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="U14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="V14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="W14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="X14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Z14" t="n">
         <v>7.622386366</v>
       </c>
       <c r="AA14" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB14"/>
-      <c r="AC14"/>
-      <c r="AD14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG14" t="s">
         <v>61</v>
       </c>
+      <c r="AB14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>1</v>
+      </c>
       <c r="AH14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>12500</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>64</v>
       </c>
       <c r="AK14" t="n">
         <v>12500</v>
       </c>
-      <c r="AL14" t="s">
-        <v>63</v>
+      <c r="AL14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>12500</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>1.41662037037167</v>
@@ -2641,107 +2731,113 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="U15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="V15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="W15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="X15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Z15" t="n">
         <v>29.71718436</v>
       </c>
       <c r="AA15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB15"/>
-      <c r="AC15"/>
-      <c r="AD15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG15" t="s">
         <v>61</v>
       </c>
+      <c r="AB15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>1</v>
+      </c>
       <c r="AH15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI15" t="n">
+        <v>78</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK15" t="n">
         <v>12500</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AL15" t="n">
         <v>2</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AM15" t="n">
         <v>25000</v>
       </c>
-      <c r="AL15" t="s">
-        <v>63</v>
+      <c r="AN15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>1.45226851851839</v>
@@ -2753,107 +2849,113 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="S16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="U16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="V16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="W16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Y16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Z16" t="n">
         <v>22.90713085</v>
       </c>
       <c r="AA16" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AD16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG16" t="s">
         <v>61</v>
       </c>
+      <c r="AB16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>1</v>
+      </c>
       <c r="AH16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>12500</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>64</v>
       </c>
       <c r="AK16" t="n">
         <v>12500</v>
       </c>
-      <c r="AL16" t="s">
-        <v>63</v>
+      <c r="AL16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>12500</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>1.45226851851839</v>
@@ -2865,107 +2967,113 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K17" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="S17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="U17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="V17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="W17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Y17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Z17" t="n">
         <v>22.90713085</v>
       </c>
       <c r="AA17" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB17"/>
-      <c r="AC17"/>
-      <c r="AD17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG17" t="s">
         <v>61</v>
       </c>
+      <c r="AB17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>1</v>
+      </c>
       <c r="AH17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>12500</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>64</v>
       </c>
       <c r="AK17" t="n">
         <v>12500</v>
       </c>
-      <c r="AL17" t="s">
-        <v>63</v>
+      <c r="AL17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>12500</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>1.45226851851839</v>
@@ -2977,107 +3085,113 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J18" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="S18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="U18" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="V18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="W18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Y18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Z18" t="n">
         <v>22.90713085</v>
       </c>
       <c r="AA18" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB18"/>
-      <c r="AC18"/>
-      <c r="AD18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG18" t="s">
         <v>61</v>
       </c>
+      <c r="AB18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>1</v>
+      </c>
       <c r="AH18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>12500</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>64</v>
       </c>
       <c r="AK18" t="n">
         <v>12500</v>
       </c>
-      <c r="AL18" t="s">
-        <v>63</v>
+      <c r="AL18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>12500</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>1.45226851851839</v>
@@ -3089,107 +3203,113 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R19" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="S19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="U19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="V19" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="W19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Y19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Z19" t="n">
         <v>22.90713085</v>
       </c>
       <c r="AA19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB19"/>
-      <c r="AC19"/>
-      <c r="AD19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG19" t="s">
         <v>61</v>
       </c>
+      <c r="AB19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>1</v>
+      </c>
       <c r="AH19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>12500</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>64</v>
       </c>
       <c r="AK19" t="n">
         <v>12500</v>
       </c>
-      <c r="AL19" t="s">
-        <v>63</v>
+      <c r="AL19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>12500</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>1.45226851851839</v>
@@ -3201,107 +3321,113 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L20" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="S20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="U20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="V20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="W20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Y20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Z20" t="n">
         <v>22.90713085</v>
       </c>
       <c r="AA20" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB20"/>
-      <c r="AC20"/>
-      <c r="AD20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG20" t="s">
         <v>61</v>
       </c>
+      <c r="AB20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>1</v>
+      </c>
       <c r="AH20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>12500</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>64</v>
       </c>
       <c r="AK20" t="n">
         <v>12500</v>
       </c>
-      <c r="AL20" t="s">
-        <v>63</v>
+      <c r="AL20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>12500</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>1.42364583333256</v>
@@ -3313,107 +3439,113 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="R21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="U21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="V21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="W21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="X21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Y21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Z21" t="n">
         <v>2.984055768</v>
       </c>
       <c r="AA21" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB21"/>
-      <c r="AC21"/>
-      <c r="AD21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG21" t="s">
         <v>61</v>
       </c>
+      <c r="AB21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>1</v>
+      </c>
       <c r="AH21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>12500</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>64</v>
       </c>
       <c r="AK21" t="n">
         <v>12500</v>
       </c>
-      <c r="AL21" t="s">
-        <v>63</v>
+      <c r="AL21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>12500</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>1.42364583333256</v>
@@ -3425,107 +3557,113 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="R22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T22" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="U22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="V22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="W22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="X22" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Y22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Z22" t="n">
         <v>2.984055768</v>
       </c>
       <c r="AA22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB22"/>
-      <c r="AC22"/>
-      <c r="AD22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG22" t="s">
         <v>61</v>
       </c>
+      <c r="AB22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>1</v>
+      </c>
       <c r="AH22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>12500</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>64</v>
       </c>
       <c r="AK22" t="n">
         <v>12500</v>
       </c>
-      <c r="AL22" t="s">
-        <v>63</v>
+      <c r="AL22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>12500</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>1.40597222222277</v>
@@ -3537,107 +3675,113 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G23" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L23" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q23" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="R23" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="S23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="U23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="W23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="X23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Y23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Z23" t="n">
         <v>26.69638057</v>
       </c>
       <c r="AA23" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB23"/>
-      <c r="AC23"/>
-      <c r="AD23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>191</v>
+        <v>61</v>
+      </c>
+      <c r="AB23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>1</v>
       </c>
       <c r="AH23" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI23" t="n">
+        <v>192</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK23" t="n">
         <v>16500</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AL23" t="n">
         <v>3</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AM23" t="n">
         <v>49500</v>
       </c>
-      <c r="AL23" t="s">
-        <v>63</v>
+      <c r="AN23" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>1.39527777777766</v>
@@ -3649,107 +3793,113 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K24" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="U24" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="V24" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="W24" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="X24" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Y24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Z24" t="n">
         <v>0.8843181342</v>
       </c>
       <c r="AA24" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB24"/>
-      <c r="AC24"/>
-      <c r="AD24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG24" t="s">
         <v>61</v>
       </c>
+      <c r="AB24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>1</v>
+      </c>
       <c r="AH24" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI24" t="n">
+        <v>158</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK24" t="n">
         <v>12500</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AL24" t="n">
         <v>2</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AM24" t="n">
         <v>25000</v>
       </c>
-      <c r="AL24" t="s">
-        <v>63</v>
+      <c r="AN24" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>1.47645833333445</v>
@@ -3761,59 +3911,59 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J25" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K25" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L25" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="S25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T25" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="U25"/>
       <c r="V25" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="W25" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="X25"/>
       <c r="Y25"/>
@@ -3821,41 +3971,47 @@
         <v>1028260.808</v>
       </c>
       <c r="AA25" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB25"/>
-      <c r="AC25"/>
-      <c r="AD25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>61</v>
+        <v>211</v>
+      </c>
+      <c r="AB25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>1</v>
       </c>
       <c r="AH25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI25" t="n">
+        <v>78</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK25" t="n">
         <v>12500</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AL25" t="n">
         <v>2</v>
       </c>
-      <c r="AK25" t="n">
+      <c r="AM25" t="n">
         <v>25000</v>
       </c>
-      <c r="AL25" t="s">
-        <v>63</v>
+      <c r="AN25" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>1.47645833333445</v>
@@ -3867,59 +4023,59 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J26" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K26" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="S26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="U26"/>
       <c r="V26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="W26" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="X26"/>
       <c r="Y26"/>
@@ -3927,41 +4083,47 @@
         <v>1028260.808</v>
       </c>
       <c r="AA26" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB26"/>
-      <c r="AC26"/>
-      <c r="AD26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>61</v>
+        <v>211</v>
+      </c>
+      <c r="AB26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>1</v>
       </c>
       <c r="AH26" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI26" t="n">
+        <v>77</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK26" t="n">
         <v>12500</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AL26" t="n">
         <v>2</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AM26" t="n">
         <v>25000</v>
       </c>
-      <c r="AL26" t="s">
-        <v>63</v>
+      <c r="AN26" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>1.44643518518569</v>
@@ -3973,107 +4135,113 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K27" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T27" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="U27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V27" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="W27" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="X27" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Y27" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Z27" t="n">
         <v>149.8029696</v>
       </c>
       <c r="AA27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB27"/>
-      <c r="AC27"/>
-      <c r="AD27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG27" t="s">
         <v>61</v>
       </c>
+      <c r="AB27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>1</v>
+      </c>
       <c r="AH27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI27" t="n">
+        <v>102</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK27" t="n">
         <v>12500</v>
       </c>
-      <c r="AJ27" t="n">
+      <c r="AL27" t="n">
         <v>4</v>
       </c>
-      <c r="AK27" t="n">
+      <c r="AM27" t="n">
         <v>50000</v>
       </c>
-      <c r="AL27" t="s">
-        <v>63</v>
+      <c r="AN27" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>1.40805555555562</v>
@@ -4085,49 +4253,49 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K28" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T28"/>
       <c r="U28"/>
@@ -4139,45 +4307,51 @@
         <v>0</v>
       </c>
       <c r="AA28" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>223</v>
-      </c>
-      <c r="AG28" t="s">
         <v>61</v>
       </c>
+      <c r="AB28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>1</v>
+      </c>
       <c r="AH28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI28" t="n">
+        <v>225</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK28" t="n">
         <v>12500</v>
       </c>
-      <c r="AJ28" t="n">
+      <c r="AL28" t="n">
         <v>4</v>
       </c>
-      <c r="AK28" t="n">
+      <c r="AM28" t="n">
         <v>50000</v>
       </c>
-      <c r="AL28" t="s">
-        <v>63</v>
+      <c r="AN28" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>1.40805555555562</v>
@@ -4189,49 +4363,49 @@
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K29" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T29"/>
       <c r="U29"/>
@@ -4243,45 +4417,51 @@
         <v>0</v>
       </c>
       <c r="AA29" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG29" t="s">
         <v>61</v>
       </c>
+      <c r="AB29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>1</v>
+      </c>
       <c r="AH29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI29" t="n">
+        <v>77</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK29" t="n">
         <v>12500</v>
       </c>
-      <c r="AJ29" t="n">
+      <c r="AL29" t="n">
         <v>4</v>
       </c>
-      <c r="AK29" t="n">
+      <c r="AM29" t="n">
         <v>50000</v>
       </c>
-      <c r="AL29" t="s">
-        <v>63</v>
+      <c r="AN29" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>1.40805555555562</v>
@@ -4293,49 +4473,49 @@
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K30" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L30" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T30"/>
       <c r="U30"/>
@@ -4347,45 +4527,51 @@
         <v>0</v>
       </c>
       <c r="AA30" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG30" t="s">
         <v>61</v>
       </c>
+      <c r="AB30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>1</v>
+      </c>
       <c r="AH30" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI30" t="n">
+        <v>78</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK30" t="n">
         <v>12500</v>
       </c>
-      <c r="AJ30" t="n">
+      <c r="AL30" t="n">
         <v>4</v>
       </c>
-      <c r="AK30" t="n">
+      <c r="AM30" t="n">
         <v>50000</v>
       </c>
-      <c r="AL30" t="s">
-        <v>63</v>
+      <c r="AN30" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>1.49663194444292</v>
@@ -4397,107 +4583,113 @@
         <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F31" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G31" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I31" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J31" t="s">
+        <v>231</v>
+      </c>
+      <c r="K31" t="s">
+        <v>232</v>
+      </c>
+      <c r="L31" t="s">
+        <v>233</v>
+      </c>
+      <c r="M31" t="s">
+        <v>234</v>
+      </c>
+      <c r="N31" t="s">
         <v>229</v>
       </c>
-      <c r="K31" t="s">
-        <v>230</v>
-      </c>
-      <c r="L31" t="s">
-        <v>231</v>
-      </c>
-      <c r="M31" t="s">
-        <v>232</v>
-      </c>
-      <c r="N31" t="s">
-        <v>227</v>
-      </c>
       <c r="O31" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T31" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="U31" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="V31" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="W31" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="X31" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Y31" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Z31" t="n">
         <v>16.29652728</v>
       </c>
       <c r="AA31" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB31"/>
-      <c r="AC31"/>
-      <c r="AD31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>191</v>
+        <v>61</v>
+      </c>
+      <c r="AB31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD31"/>
+      <c r="AE31"/>
+      <c r="AF31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>1</v>
       </c>
       <c r="AH31" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>14000</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>1</v>
+        <v>242</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>64</v>
       </c>
       <c r="AK31" t="n">
         <v>14000</v>
       </c>
-      <c r="AL31" t="s">
-        <v>63</v>
+      <c r="AL31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>14000</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>1.49663194444292</v>
@@ -4509,107 +4701,113 @@
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F32" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G32" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H32" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I32" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J32" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" t="s">
+        <v>232</v>
+      </c>
+      <c r="L32" t="s">
+        <v>233</v>
+      </c>
+      <c r="M32" t="s">
+        <v>234</v>
+      </c>
+      <c r="N32" t="s">
         <v>229</v>
       </c>
-      <c r="K32" t="s">
-        <v>230</v>
-      </c>
-      <c r="L32" t="s">
-        <v>231</v>
-      </c>
-      <c r="M32" t="s">
-        <v>232</v>
-      </c>
-      <c r="N32" t="s">
-        <v>227</v>
-      </c>
       <c r="O32" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T32" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="U32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="V32" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="W32" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="X32" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Y32" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Z32" t="n">
         <v>16.29652728</v>
       </c>
       <c r="AA32" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB32"/>
-      <c r="AC32"/>
-      <c r="AD32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>241</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>191</v>
+        <v>61</v>
+      </c>
+      <c r="AB32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>1</v>
       </c>
       <c r="AH32" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>14000</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>1</v>
+        <v>243</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>64</v>
       </c>
       <c r="AK32" t="n">
         <v>14000</v>
       </c>
-      <c r="AL32" t="s">
-        <v>63</v>
+      <c r="AL32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>14000</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>1.49663194444292</v>
@@ -4621,107 +4819,113 @@
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F33" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G33" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H33" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I33" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J33" t="s">
+        <v>231</v>
+      </c>
+      <c r="K33" t="s">
+        <v>232</v>
+      </c>
+      <c r="L33" t="s">
+        <v>233</v>
+      </c>
+      <c r="M33" t="s">
+        <v>234</v>
+      </c>
+      <c r="N33" t="s">
         <v>229</v>
       </c>
-      <c r="K33" t="s">
-        <v>230</v>
-      </c>
-      <c r="L33" t="s">
-        <v>231</v>
-      </c>
-      <c r="M33" t="s">
-        <v>232</v>
-      </c>
-      <c r="N33" t="s">
-        <v>227</v>
-      </c>
       <c r="O33" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P33" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T33" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="U33" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="V33" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="W33" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="X33" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Y33" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Z33" t="n">
         <v>16.29652728</v>
       </c>
       <c r="AA33" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB33"/>
-      <c r="AC33"/>
-      <c r="AD33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>242</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>191</v>
+        <v>61</v>
+      </c>
+      <c r="AB33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>1</v>
       </c>
       <c r="AH33" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>14000</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>1</v>
+        <v>244</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>64</v>
       </c>
       <c r="AK33" t="n">
         <v>14000</v>
       </c>
-      <c r="AL33" t="s">
-        <v>63</v>
+      <c r="AL33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>14000</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>1.49663194444292</v>
@@ -4733,107 +4937,113 @@
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F34" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G34" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H34" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I34" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J34" t="s">
+        <v>231</v>
+      </c>
+      <c r="K34" t="s">
+        <v>232</v>
+      </c>
+      <c r="L34" t="s">
+        <v>233</v>
+      </c>
+      <c r="M34" t="s">
+        <v>234</v>
+      </c>
+      <c r="N34" t="s">
         <v>229</v>
       </c>
-      <c r="K34" t="s">
-        <v>230</v>
-      </c>
-      <c r="L34" t="s">
-        <v>231</v>
-      </c>
-      <c r="M34" t="s">
-        <v>232</v>
-      </c>
-      <c r="N34" t="s">
-        <v>227</v>
-      </c>
       <c r="O34" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P34" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T34" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="U34" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="V34" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="W34" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="X34" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Y34" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Z34" t="n">
         <v>16.29652728</v>
       </c>
       <c r="AA34" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB34"/>
-      <c r="AC34"/>
-      <c r="AD34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>243</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>191</v>
+        <v>61</v>
+      </c>
+      <c r="AB34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>1</v>
       </c>
       <c r="AH34" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>14000</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>1</v>
+        <v>245</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>64</v>
       </c>
       <c r="AK34" t="n">
         <v>14000</v>
       </c>
-      <c r="AL34" t="s">
-        <v>63</v>
+      <c r="AL34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>14000</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>1.49663194444292</v>
@@ -4845,107 +5055,113 @@
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F35" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G35" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H35" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I35" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J35" t="s">
+        <v>231</v>
+      </c>
+      <c r="K35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L35" t="s">
+        <v>233</v>
+      </c>
+      <c r="M35" t="s">
+        <v>234</v>
+      </c>
+      <c r="N35" t="s">
         <v>229</v>
       </c>
-      <c r="K35" t="s">
-        <v>230</v>
-      </c>
-      <c r="L35" t="s">
-        <v>231</v>
-      </c>
-      <c r="M35" t="s">
-        <v>232</v>
-      </c>
-      <c r="N35" t="s">
-        <v>227</v>
-      </c>
       <c r="O35" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T35" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="U35" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="V35" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="W35" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="X35" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Y35" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Z35" t="n">
         <v>16.29652728</v>
       </c>
       <c r="AA35" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>244</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>191</v>
+        <v>61</v>
+      </c>
+      <c r="AB35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>1</v>
       </c>
       <c r="AH35" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>14000</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>1</v>
+        <v>246</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>64</v>
       </c>
       <c r="AK35" t="n">
         <v>14000</v>
       </c>
-      <c r="AL35" t="s">
-        <v>63</v>
+      <c r="AL35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>14000</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>1.49663194444292</v>
@@ -4957,107 +5173,113 @@
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F36" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G36" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H36" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I36" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J36" t="s">
+        <v>231</v>
+      </c>
+      <c r="K36" t="s">
+        <v>232</v>
+      </c>
+      <c r="L36" t="s">
+        <v>233</v>
+      </c>
+      <c r="M36" t="s">
+        <v>234</v>
+      </c>
+      <c r="N36" t="s">
         <v>229</v>
       </c>
-      <c r="K36" t="s">
-        <v>230</v>
-      </c>
-      <c r="L36" t="s">
-        <v>231</v>
-      </c>
-      <c r="M36" t="s">
-        <v>232</v>
-      </c>
-      <c r="N36" t="s">
-        <v>227</v>
-      </c>
       <c r="O36" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T36" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="U36" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="V36" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="W36" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="X36" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Y36" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Z36" t="n">
         <v>16.29652728</v>
       </c>
       <c r="AA36" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB36"/>
-      <c r="AC36"/>
-      <c r="AD36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>191</v>
+        <v>61</v>
+      </c>
+      <c r="AB36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>1</v>
       </c>
       <c r="AH36" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>16500</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>1</v>
+        <v>192</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>64</v>
       </c>
       <c r="AK36" t="n">
         <v>16500</v>
       </c>
-      <c r="AL36" t="s">
-        <v>63</v>
+      <c r="AL36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>16500</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>1.49663194444292</v>
@@ -5069,107 +5291,113 @@
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F37" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G37" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H37" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I37" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J37" t="s">
+        <v>231</v>
+      </c>
+      <c r="K37" t="s">
+        <v>232</v>
+      </c>
+      <c r="L37" t="s">
+        <v>233</v>
+      </c>
+      <c r="M37" t="s">
+        <v>234</v>
+      </c>
+      <c r="N37" t="s">
         <v>229</v>
       </c>
-      <c r="K37" t="s">
-        <v>230</v>
-      </c>
-      <c r="L37" t="s">
-        <v>231</v>
-      </c>
-      <c r="M37" t="s">
-        <v>232</v>
-      </c>
-      <c r="N37" t="s">
-        <v>227</v>
-      </c>
       <c r="O37" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P37" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T37" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="U37" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="V37" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="W37" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="X37" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Y37" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Z37" t="n">
         <v>16.29652728</v>
       </c>
       <c r="AA37" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB37"/>
-      <c r="AC37"/>
-      <c r="AD37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>191</v>
+        <v>61</v>
+      </c>
+      <c r="AB37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>1</v>
       </c>
       <c r="AH37" t="s">
-        <v>246</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>18000</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>1</v>
+        <v>247</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>248</v>
       </c>
       <c r="AK37" t="n">
         <v>18000</v>
       </c>
-      <c r="AL37" t="s">
-        <v>63</v>
+      <c r="AL37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>18000</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>1.49663194444292</v>
@@ -5181,102 +5409,108 @@
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F38" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G38" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I38" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J38" t="s">
+        <v>231</v>
+      </c>
+      <c r="K38" t="s">
+        <v>232</v>
+      </c>
+      <c r="L38" t="s">
+        <v>233</v>
+      </c>
+      <c r="M38" t="s">
+        <v>234</v>
+      </c>
+      <c r="N38" t="s">
         <v>229</v>
       </c>
-      <c r="K38" t="s">
-        <v>230</v>
-      </c>
-      <c r="L38" t="s">
-        <v>231</v>
-      </c>
-      <c r="M38" t="s">
-        <v>232</v>
-      </c>
-      <c r="N38" t="s">
-        <v>227</v>
-      </c>
       <c r="O38" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P38" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T38" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="U38" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="V38" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="W38" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="X38" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Y38" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Z38" t="n">
         <v>16.29652728</v>
       </c>
       <c r="AA38" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB38"/>
-      <c r="AC38"/>
-      <c r="AD38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>247</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>191</v>
+        <v>61</v>
+      </c>
+      <c r="AB38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>1</v>
       </c>
       <c r="AH38" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>14000</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>1</v>
+        <v>249</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>64</v>
       </c>
       <c r="AK38" t="n">
         <v>14000</v>
       </c>
-      <c r="AL38" t="s">
-        <v>63</v>
+      <c r="AL38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>14000</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Versi revisi 2024 Perjuangan/penjualan_converted.xlsx
+++ b/Versi revisi 2024 Perjuangan/penjualan_converted.xlsx
@@ -14,124 +14,124 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waktu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tanggal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bulan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nama_mds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_mds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_mds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">region_mds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kode_customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nama_customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no_hp_customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kecamatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kabupaten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">provinsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detail_klasifikasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">klasifikasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sekolah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nama_cluster_firestart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">koordinat_ro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">koordinat_call</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lat1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">long1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lat2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">long2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jarak_meter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kesesuaian_titik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peserta_display_wow_operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peserta_loyalty_sachet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">project_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">project_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sahabat_nfi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">firestart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item_penjualan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub_brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">harga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty_sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">omset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tipe_transaksi</t>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waktu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanggal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nama Mds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id Mds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area Mds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region Mds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kode Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nama Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Hp Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kecamatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabupaten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provinsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detail Klasifikasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klasifikasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekolah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nama Cluster Firestart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koordinat Ro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koordinat Call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lat1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lat2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jarak Meter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kesesuaian Titik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peserta Display Wow Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peserta Loyalty Sachet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahabat Nfi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firestart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Penjualan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qty Sold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipe Transaksi</t>
   </si>
   <si>
     <t xml:space="preserve">130cac82</t>
